--- a/WebAppComercial-Tablas.xlsx
+++ b/WebAppComercial-Tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blazor\WebAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505EE65C-9995-47A1-A23A-56CEFF0175F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869A60C6-DF94-4357-B7A2-CF8E23CCBFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{534AE804-ED37-4048-86C5-21A0E055AB0A}"/>
   </bookViews>
@@ -343,7 +343,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,12 +396,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -730,26 +738,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E997CD-9724-4C84-850D-3486B115B5CB}">
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" style="1"/>
+    <col min="2" max="2" width="2.77734375" style="1"/>
     <col min="3" max="3" width="21.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" style="1"/>
+    <col min="4" max="4" width="2.77734375" style="1"/>
     <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" style="1"/>
+    <col min="6" max="6" width="2.77734375" style="1"/>
     <col min="7" max="7" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.44140625" style="1"/>
+    <col min="8" max="8" width="2.77734375" style="1"/>
     <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.44140625" style="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.44140625" style="1"/>
-    <col min="13" max="13" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="3.44140625" style="1"/>
+    <col min="10" max="10" width="2.77734375" style="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.77734375" style="1"/>
+    <col min="13" max="13" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -762,6 +772,18 @@
       <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -773,6 +795,18 @@
       <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -784,6 +818,18 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
@@ -792,6 +838,12 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
@@ -800,6 +852,18 @@
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
@@ -808,6 +872,18 @@
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
@@ -816,6 +892,18 @@
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
@@ -824,6 +912,15 @@
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
@@ -832,6 +929,18 @@
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
@@ -840,6 +949,18 @@
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
@@ -848,6 +969,15 @@
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
@@ -856,635 +986,473 @@
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="1.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="2" t="s">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E15" s="5"/>
+      <c r="I15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="1.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="I23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C31" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="1.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="M35" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="1.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>73</v>
+      <c r="A39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>19</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>71</v>
+      <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="1.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/WebAppComercial-Tablas.xlsx
+++ b/WebAppComercial-Tablas.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blazor\WebAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869A60C6-DF94-4357-B7A2-CF8E23CCBFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFBCE44-61A6-42A2-BBFC-CF81CE57B8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{534AE804-ED37-4048-86C5-21A0E055AB0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas" sheetId="1" r:id="rId1"/>
+    <sheet name="Menu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
   <si>
     <t>Proveedor</t>
   </si>
@@ -315,6 +316,90 @@
   </si>
   <si>
     <t>FechaModificacionClave</t>
+  </si>
+  <si>
+    <t>Archivos</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Conceptos</t>
+  </si>
+  <si>
+    <t>Categorías</t>
+  </si>
+  <si>
+    <t>IVA's</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>Medidas</t>
+  </si>
+  <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
+    <t>Tipos Documento</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Cambio de Usuario</t>
+  </si>
+  <si>
+    <t>Cambio de Clave</t>
+  </si>
+  <si>
+    <t>Cerrar Sesión</t>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Dev. a Proveedores</t>
+  </si>
+  <si>
+    <t>Dev.de Clientes</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>Traslados</t>
+  </si>
+  <si>
+    <t>Inventarios</t>
+  </si>
+  <si>
+    <t>Verificar Kardex</t>
+  </si>
+  <si>
+    <t>Movimientos</t>
+  </si>
+  <si>
+    <t>Consultas</t>
+  </si>
+  <si>
+    <t>Utilidad</t>
+  </si>
+  <si>
+    <t>Listados</t>
+  </si>
+  <si>
+    <t>Reportes</t>
+  </si>
+  <si>
+    <t>Acerca de</t>
+  </si>
+  <si>
+    <t>Almacenes</t>
   </si>
 </sst>
 </file>
@@ -343,7 +428,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +450,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,8 +493,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,7 +832,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -772,13 +863,13 @@
       <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>70</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -1013,7 +1104,6 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E15" s="5"/>
       <c r="I15" s="2" t="s">
         <v>63</v>
       </c>
@@ -1459,4 +1549,173 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46584FB-8929-4423-B670-E017B4262E17}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="15.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WebAppComercial-Tablas.xlsx
+++ b/WebAppComercial-Tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blazor\WebAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFBCE44-61A6-42A2-BBFC-CF81CE57B8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD60E23-AAE2-4069-93F3-91A85250E7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{534AE804-ED37-4048-86C5-21A0E055AB0A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="126">
   <si>
     <t>Proveedor</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Aniversario</t>
   </si>
   <si>
-    <t>Almacen</t>
-  </si>
-  <si>
     <t>IDAlmacen</t>
   </si>
   <si>
@@ -183,21 +180,6 @@
     <t>CostoPromedio</t>
   </si>
   <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>IDCategoria</t>
-  </si>
-  <si>
-    <t>IDIVA</t>
-  </si>
-  <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>IDMedida</t>
-  </si>
-  <si>
     <t>Medida</t>
   </si>
   <si>
@@ -249,9 +231,6 @@
     <t>CantidadMinima</t>
   </si>
   <si>
-    <t>Categoria</t>
-  </si>
-  <si>
     <t>Inventario</t>
   </si>
   <si>
@@ -273,51 +252,9 @@
     <t>Ajuste</t>
   </si>
   <si>
-    <t>IVA</t>
-  </si>
-  <si>
-    <t>Tarifa</t>
-  </si>
-  <si>
-    <t>PermisoRol</t>
-  </si>
-  <si>
-    <t>IDPermiso</t>
-  </si>
-  <si>
     <t>IDRol</t>
   </si>
   <si>
-    <t>Formulario</t>
-  </si>
-  <si>
-    <t>PuedeVer</t>
-  </si>
-  <si>
-    <t>PuedeModificar</t>
-  </si>
-  <si>
-    <t>PuedeBorrar</t>
-  </si>
-  <si>
-    <t>Rol</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>IDUsuario</t>
-  </si>
-  <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Clave</t>
-  </si>
-  <si>
-    <t>FechaModificacionClave</t>
-  </si>
-  <si>
     <t>Archivos</t>
   </si>
   <si>
@@ -400,6 +337,84 @@
   </si>
   <si>
     <t>Almacenes</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Ivas</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Stores</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>CategoryId</t>
+  </si>
+  <si>
+    <t>IvaId</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>MeasureId</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>AspNetUsers</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LatName</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>PasswordHash</t>
+  </si>
+  <si>
+    <t>AspNetUserRoles</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>RoleId</t>
+  </si>
+  <si>
+    <t>AspNetRoles</t>
   </si>
 </sst>
 </file>
@@ -428,7 +443,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +471,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -495,6 +522,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,9 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E997CD-9724-4C84-850D-3486B115B5CB}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -864,16 +891,16 @@
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>105</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -887,16 +914,16 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -910,16 +937,16 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -930,10 +957,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -943,17 +970,17 @@
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>53</v>
+      <c r="G5" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -964,13 +991,13 @@
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>4</v>
@@ -984,16 +1011,16 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1003,14 +1030,17 @@
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I8" s="2" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1020,17 +1050,14 @@
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1040,17 +1067,17 @@
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>50</v>
+      <c r="G10" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1061,13 +1088,13 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1078,21 +1105,24 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="I13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1100,12 +1130,12 @@
         <v>17</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I15" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="1.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1125,71 +1155,71 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1197,131 +1227,131 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -1349,108 +1379,108 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="M30" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K31" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -1458,7 +1488,7 @@
         <v>13</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="1.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1477,73 +1507,61 @@
       <c r="M37" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>80</v>
+      <c r="A39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>116</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>86</v>
+      <c r="A45" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>10</v>
+      <c r="A46" s="8" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1566,153 +1584,153 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/WebAppComercial-Tablas.xlsx
+++ b/WebAppComercial-Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blazor\WebAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD60E23-AAE2-4069-93F3-91A85250E7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEA0747-FC37-4A6B-9BD8-932D1EF5FA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{534AE804-ED37-4048-86C5-21A0E055AB0A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{534AE804-ED37-4048-86C5-21A0E055AB0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas" sheetId="1" r:id="rId1"/>
@@ -288,9 +288,6 @@
     <t>Cambio de Usuario</t>
   </si>
   <si>
-    <t>Cambio de Clave</t>
-  </si>
-  <si>
     <t>Cerrar Sesión</t>
   </si>
   <si>
@@ -415,6 +412,9 @@
   </si>
   <si>
     <t>AspNetRoles</t>
+  </si>
+  <si>
+    <t>Cambio de Contraseña</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +486,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -514,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -524,6 +530,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E997CD-9724-4C84-850D-3486B115B5CB}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -891,13 +898,13 @@
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>41</v>
@@ -914,13 +921,13 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>29</v>
@@ -937,13 +944,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>18</v>
@@ -957,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>26</v>
@@ -974,7 +981,7 @@
         <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>58</v>
@@ -991,10 +998,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>18</v>
@@ -1011,10 +1018,10 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>26</v>
@@ -1031,10 +1038,10 @@
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>59</v>
@@ -1051,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>60</v>
@@ -1068,10 +1075,10 @@
         <v>8</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>61</v>
@@ -1088,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>62</v>
@@ -1105,7 +1112,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>57</v>
@@ -1119,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>25</v>
@@ -1508,13 +1515,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -1522,7 +1529,7 @@
         <v>71</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>71</v>
@@ -1530,38 +1537,38 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1573,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46584FB-8929-4423-B670-E017B4262E17}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1587,24 +1594,24 @@
         <v>72</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
@@ -1616,7 +1623,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1624,98 +1631,98 @@
         <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1724,13 +1731,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/WebAppComercial-Tablas.xlsx
+++ b/WebAppComercial-Tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blazor\WebAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEA0747-FC37-4A6B-9BD8-932D1EF5FA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E2081-34CD-41B9-B0BA-364AD43C406F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{534AE804-ED37-4048-86C5-21A0E055AB0A}"/>
   </bookViews>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1655,7 +1655,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1666,7 +1666,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="1" t="s">

--- a/WebAppComercial-Tablas.xlsx
+++ b/WebAppComercial-Tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blazor\WebAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E2081-34CD-41B9-B0BA-364AD43C406F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78791509-5B94-4513-9B47-D4CEB1218815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{534AE804-ED37-4048-86C5-21A0E055AB0A}"/>
   </bookViews>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1627,7 +1627,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1641,7 +1641,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1726,7 +1726,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="9" t="s">
         <v>82</v>
       </c>
     </row>

--- a/WebAppComercial-Tablas.xlsx
+++ b/WebAppComercial-Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blazor\WebAppComercial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78791509-5B94-4513-9B47-D4CEB1218815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD784A1-3288-48FF-99F7-CE8B2DAA97B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{534AE804-ED37-4048-86C5-21A0E055AB0A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{534AE804-ED37-4048-86C5-21A0E055AB0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,12 +471,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -528,9 +522,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E997CD-9724-4C84-850D-3486B115B5CB}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
@@ -888,13 +881,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -1463,7 +1456,7 @@
       <c r="G33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="5" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="2" t="s">
@@ -1514,13 +1507,13 @@
       <c r="M37" s="4"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1528,10 +1521,10 @@
       <c r="A40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1539,10 +1532,10 @@
       <c r="A41" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1562,12 +1555,12 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1580,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46584FB-8929-4423-B670-E017B4262E17}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1610,7 +1603,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1627,7 +1620,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1641,7 +1634,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1655,7 +1648,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1666,7 +1659,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1677,7 +1670,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1688,7 +1681,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1699,7 +1692,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1718,7 +1711,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1726,17 +1719,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>83</v>
       </c>
     </row>
